--- a/src/test/resources/excel/read_excel_mapper.xlsx
+++ b/src/test/resources/excel/read_excel_mapper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4760" yWindow="5560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>string</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,34 @@
   </si>
   <si>
     <t>STRING1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dateOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>booleanOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>floatOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doubleOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formulaOpt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -119,8 +147,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,7 +191,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -176,6 +208,8 @@
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -193,6 +227,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -521,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -532,7 +568,7 @@
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +596,29 @@
       <c r="I1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -589,6 +646,28 @@
       </c>
       <c r="I2" t="s">
         <v>10</v>
+      </c>
+      <c r="J2">
+        <v>11101</v>
+      </c>
+      <c r="K2">
+        <v>11101</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43617</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1110.0999999999999</v>
+      </c>
+      <c r="O2">
+        <v>1.0000089999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <f>COUNT(I2:O2)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/read_excel_mapper.xlsx
+++ b/src/test/resources/excel/read_excel_mapper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="5560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>string</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>formulaOpt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STRING-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STRING1-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -147,8 +155,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,7 +203,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -210,6 +222,8 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -229,6 +243,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -557,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -668,6 +684,58 @@
       <c r="P2" s="2">
         <f>COUNT(I2:O2)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>11102</v>
+      </c>
+      <c r="C3">
+        <v>11102</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43618</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1110.2</v>
+      </c>
+      <c r="G3">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <f>COUNT(A3:F3)</f>
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>11102</v>
+      </c>
+      <c r="K3">
+        <v>11102</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43619</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1110.3</v>
+      </c>
+      <c r="O3">
+        <v>1.000008</v>
+      </c>
+      <c r="P3" s="2">
+        <f>COUNT(I3:M3)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
